--- a/Resources/mandates_by_state.xlsx
+++ b/Resources/mandates_by_state.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wendi\My Drive\project\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F57C210-C42C-40C3-A2D8-15F9FC8C0A5E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C418CD94-5F91-48C6-88D3-7006B8C99026}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1056,17 +1056,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X6" sqref="X6"/>
+      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">

--- a/Resources/mandates_by_state.xlsx
+++ b/Resources/mandates_by_state.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wendi\My Drive\project\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C418CD94-5F91-48C6-88D3-7006B8C99026}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F57C210-C42C-40C3-A2D8-15F9FC8C0A5E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1056,17 +1056,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
+      <selection pane="bottomLeft" activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
